--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BetaFiberA-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BetaFiberA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1075,7 @@
         <v>0.9916696509680184</v>
       </c>
       <c r="F13">
-        <v>0.9909622162274097</v>
+        <v>0.99096221622741</v>
       </c>
       <c r="G13">
         <v>0.9954741158333702</v>
@@ -1090,7 +1090,7 @@
         <v>0.9932343334042283</v>
       </c>
       <c r="K13">
-        <v>0.9926970675175545</v>
+        <v>0.9926970675175544</v>
       </c>
       <c r="L13">
         <v>0.9911819355185389</v>
@@ -1102,7 +1102,7 @@
         <v>0.9936502983255495</v>
       </c>
       <c r="O13">
-        <v>0.9934342321779697</v>
+        <v>0.9934342321779698</v>
       </c>
       <c r="P13">
         <v>0.9928969922656674</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.999611664132058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.210448842380348</v>
+      </c>
+      <c r="D16">
+        <v>0.9085960483277356</v>
+      </c>
+      <c r="E16">
+        <v>1.05656414440336</v>
+      </c>
+      <c r="F16">
+        <v>0.9104558492700081</v>
+      </c>
+      <c r="G16">
+        <v>1.210448842380348</v>
+      </c>
+      <c r="H16">
+        <v>0.9085960483277356</v>
+      </c>
+      <c r="I16">
+        <v>1.067917046248743</v>
+      </c>
+      <c r="J16">
+        <v>0.91967140095761</v>
+      </c>
+      <c r="K16">
+        <v>1.021511881579576</v>
+      </c>
+      <c r="L16">
+        <v>0.8813047786622972</v>
+      </c>
+      <c r="M16">
+        <v>1.210448842380348</v>
+      </c>
+      <c r="N16">
+        <v>0.9825800963655478</v>
+      </c>
+      <c r="O16">
+        <v>1.021516221095363</v>
+      </c>
+      <c r="P16">
+        <v>0.9970587489787096</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.210448842380348</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
@@ -1078,7 +1078,7 @@
         <v>0.9916696509680184</v>
       </c>
       <c r="F13">
-        <v>0.99096221622741</v>
+        <v>0.9909622162274097</v>
       </c>
       <c r="G13">
         <v>0.9954741158333702</v>
@@ -1093,7 +1093,7 @@
         <v>0.9932343334042283</v>
       </c>
       <c r="K13">
-        <v>0.9926970675175544</v>
+        <v>0.9926970675175545</v>
       </c>
       <c r="L13">
         <v>0.9911819355185389</v>
@@ -1105,7 +1105,7 @@
         <v>0.9936502983255495</v>
       </c>
       <c r="O13">
-        <v>0.9934342321779698</v>
+        <v>0.9934342321779697</v>
       </c>
       <c r="P13">
         <v>0.9928969922656674</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.809355999999999</v>
+        <v>1.210448842380348</v>
       </c>
       <c r="D10">
-        <v>0.2099199999999999</v>
+        <v>0.9085960483277356</v>
       </c>
       <c r="E10">
-        <v>1.574979999999996</v>
+        <v>1.05656414440336</v>
       </c>
       <c r="F10">
-        <v>0.8733199999999987</v>
+        <v>0.9104558492700081</v>
       </c>
       <c r="G10">
-        <v>0.809355999999999</v>
+        <v>1.210448842380348</v>
       </c>
       <c r="H10">
-        <v>0.2099199999999999</v>
+        <v>0.9085960483277356</v>
       </c>
       <c r="I10">
-        <v>1.344795999999999</v>
+        <v>1.067917046248743</v>
       </c>
       <c r="J10">
-        <v>0.9952480000000019</v>
+        <v>0.91967140095761</v>
       </c>
       <c r="K10">
-        <v>1.074148</v>
+        <v>1.021511881579576</v>
       </c>
       <c r="L10">
-        <v>0.5459639999999998</v>
+        <v>0.8813047786622972</v>
       </c>
       <c r="M10">
-        <v>0.809355999999999</v>
+        <v>1.210448842380348</v>
       </c>
       <c r="N10">
-        <v>0.8924499999999979</v>
+        <v>0.9825800963655478</v>
       </c>
       <c r="O10">
-        <v>0.8668939999999983</v>
+        <v>1.021516221095363</v>
       </c>
       <c r="P10">
-        <v>0.9284664999999992</v>
+        <v>0.9970587489787096</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.019162500000001</v>
+        <v>1.040159271627852</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>0.2836683827155736</v>
       </c>
       <c r="E11">
-        <v>1.62</v>
+        <v>1.389797186059282</v>
       </c>
       <c r="F11">
-        <v>0.8025125000000032</v>
+        <v>0.8739336620014455</v>
       </c>
       <c r="G11">
-        <v>1.019162500000001</v>
+        <v>1.040159271627852</v>
       </c>
       <c r="H11">
-        <v>0.08</v>
+        <v>0.2836683827155736</v>
       </c>
       <c r="I11">
-        <v>1.444024999999998</v>
+        <v>1.259594408488008</v>
       </c>
       <c r="J11">
-        <v>0.8679249999999989</v>
+        <v>1.000859648104836</v>
       </c>
       <c r="K11">
-        <v>1.180687500000001</v>
+        <v>1.048142785377809</v>
       </c>
       <c r="L11">
-        <v>0.4180750000000004</v>
+        <v>0.5774774865891594</v>
       </c>
       <c r="M11">
-        <v>1.019162500000001</v>
+        <v>1.040159271627852</v>
       </c>
       <c r="N11">
-        <v>0.8500000000000001</v>
+        <v>0.8367327843874279</v>
       </c>
       <c r="O11">
-        <v>0.880418750000001</v>
+        <v>0.8968896256010386</v>
       </c>
       <c r="P11">
-        <v>0.9290484375000003</v>
+        <v>0.9342041038704959</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.0182387278848</v>
+        <v>1.036540111628894</v>
       </c>
       <c r="D12">
-        <v>0.4578196030464002</v>
+        <v>0.2843757162888689</v>
       </c>
       <c r="E12">
-        <v>1.353303950131197</v>
+        <v>1.38972404633226</v>
       </c>
       <c r="F12">
-        <v>0.8822623808512001</v>
+        <v>0.8749847640722022</v>
       </c>
       <c r="G12">
-        <v>1.0182387278848</v>
+        <v>1.036540111628894</v>
       </c>
       <c r="H12">
-        <v>0.4578196030464002</v>
+        <v>0.2843757162888689</v>
       </c>
       <c r="I12">
-        <v>1.2507053677568</v>
+        <v>1.258884866183629</v>
       </c>
       <c r="J12">
-        <v>0.9215856194560031</v>
+        <v>1.001990075303949</v>
       </c>
       <c r="K12">
-        <v>1.099477903871996</v>
+        <v>1.047691576373158</v>
       </c>
       <c r="L12">
-        <v>0.6589874265088005</v>
+        <v>0.5784904433601387</v>
       </c>
       <c r="M12">
-        <v>1.018224414822399</v>
+        <v>1.036540111628894</v>
       </c>
       <c r="N12">
-        <v>0.9055617765887987</v>
+        <v>0.8370498813105642</v>
       </c>
       <c r="O12">
-        <v>0.9279061654783993</v>
+        <v>0.8964061595805561</v>
       </c>
       <c r="P12">
-        <v>0.9552976224383997</v>
+        <v>0.9340851999428874</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9954741158333702</v>
+        <v>1.03910062401136</v>
       </c>
       <c r="D13">
-        <v>0.9956309456830806</v>
+        <v>0.283769873122901</v>
       </c>
       <c r="E13">
-        <v>0.9916696509680184</v>
+        <v>1.390101781067999</v>
       </c>
       <c r="F13">
-        <v>0.9909622162274097</v>
+        <v>0.8741251775600941</v>
       </c>
       <c r="G13">
-        <v>0.9954741158333702</v>
+        <v>1.03910062401136</v>
       </c>
       <c r="H13">
-        <v>0.9956309456830806</v>
+        <v>0.283769873122901</v>
       </c>
       <c r="I13">
-        <v>0.992325672973139</v>
+        <v>1.259507847376276</v>
       </c>
       <c r="J13">
-        <v>0.9932343334042283</v>
+        <v>1.0012076086197</v>
       </c>
       <c r="K13">
-        <v>0.9926970675175545</v>
+        <v>1.04784550087967</v>
       </c>
       <c r="L13">
-        <v>0.9911819355185389</v>
+        <v>0.5775629411149235</v>
       </c>
       <c r="M13">
-        <v>0.9954665401410732</v>
+        <v>1.03910062401136</v>
       </c>
       <c r="N13">
-        <v>0.9936502983255495</v>
+        <v>0.8369358270954499</v>
       </c>
       <c r="O13">
-        <v>0.9934342321779697</v>
+        <v>0.8967743639405883</v>
       </c>
       <c r="P13">
-        <v>0.9928969922656674</v>
+        <v>0.9341526692191153</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9555999066360479</v>
+        <v>0.809355999999999</v>
       </c>
       <c r="D14">
-        <v>0.9920333835649312</v>
+        <v>0.2099199999999999</v>
       </c>
       <c r="E14">
-        <v>0.9897523578422132</v>
+        <v>1.574979999999996</v>
       </c>
       <c r="F14">
-        <v>1.014038933559427</v>
+        <v>0.8733199999999987</v>
       </c>
       <c r="G14">
-        <v>0.9555999066360479</v>
+        <v>0.809355999999999</v>
       </c>
       <c r="H14">
-        <v>0.9920333835649312</v>
+        <v>0.2099199999999999</v>
       </c>
       <c r="I14">
-        <v>0.9774125866171012</v>
+        <v>1.344795999999999</v>
       </c>
       <c r="J14">
-        <v>1.005624824689247</v>
+        <v>0.9952480000000019</v>
       </c>
       <c r="K14">
-        <v>0.9952870229557815</v>
+        <v>1.074148</v>
       </c>
       <c r="L14">
-        <v>1.006358908091816</v>
+        <v>0.5459639999999998</v>
       </c>
       <c r="M14">
-        <v>0.9555999066360479</v>
+        <v>0.809355999999999</v>
       </c>
       <c r="N14">
-        <v>0.9908928707035722</v>
+        <v>0.8924499999999979</v>
       </c>
       <c r="O14">
-        <v>0.9878561454006549</v>
+        <v>0.8668939999999983</v>
       </c>
       <c r="P14">
-        <v>0.9920134904945705</v>
+        <v>0.9284664999999992</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9435945384509613</v>
+        <v>1.019162500000001</v>
       </c>
       <c r="D15">
-        <v>1.086309105141223</v>
+        <v>0.08</v>
       </c>
       <c r="E15">
-        <v>0.9727803913028665</v>
+        <v>1.62</v>
       </c>
       <c r="F15">
-        <v>1.00840885990544</v>
+        <v>0.8025125000000032</v>
       </c>
       <c r="G15">
-        <v>0.9435945384509613</v>
+        <v>1.019162500000001</v>
       </c>
       <c r="H15">
-        <v>1.086309105141223</v>
+        <v>0.08</v>
       </c>
       <c r="I15">
-        <v>0.9558379423795529</v>
+        <v>1.444024999999998</v>
       </c>
       <c r="J15">
-        <v>1.00848941600661</v>
+        <v>0.8679249999999989</v>
       </c>
       <c r="K15">
-        <v>0.9683419697192863</v>
+        <v>1.180687500000001</v>
       </c>
       <c r="L15">
-        <v>1.053131090150523</v>
+        <v>0.4180750000000004</v>
       </c>
       <c r="M15">
-        <v>0.9435561134809031</v>
+        <v>1.019162500000001</v>
       </c>
       <c r="N15">
-        <v>1.029544748222045</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="O15">
-        <v>1.002773223700123</v>
+        <v>0.880418750000001</v>
       </c>
       <c r="P15">
-        <v>0.999611664132058</v>
+        <v>0.9290484375000003</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.210448842380348</v>
+        <v>1.0182387278848</v>
       </c>
       <c r="D16">
-        <v>0.9085960483277356</v>
+        <v>0.4578196030464002</v>
       </c>
       <c r="E16">
-        <v>1.05656414440336</v>
+        <v>1.353303950131197</v>
       </c>
       <c r="F16">
-        <v>0.9104558492700081</v>
+        <v>0.8822623808512001</v>
       </c>
       <c r="G16">
-        <v>1.210448842380348</v>
+        <v>1.0182387278848</v>
       </c>
       <c r="H16">
-        <v>0.9085960483277356</v>
+        <v>0.4578196030464002</v>
       </c>
       <c r="I16">
-        <v>1.067917046248743</v>
+        <v>1.2507053677568</v>
       </c>
       <c r="J16">
-        <v>0.91967140095761</v>
+        <v>0.9215856194560031</v>
       </c>
       <c r="K16">
-        <v>1.021511881579576</v>
+        <v>1.099477903871996</v>
       </c>
       <c r="L16">
-        <v>0.8813047786622972</v>
+        <v>0.6589874265088005</v>
       </c>
       <c r="M16">
-        <v>1.210448842380348</v>
+        <v>1.018224414822399</v>
       </c>
       <c r="N16">
-        <v>0.9825800963655478</v>
+        <v>0.9055617765887987</v>
       </c>
       <c r="O16">
-        <v>1.021516221095363</v>
+        <v>0.9279061654783993</v>
       </c>
       <c r="P16">
-        <v>0.9970587489787096</v>
+        <v>0.9552976224383997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9954741158333702</v>
+      </c>
+      <c r="D17">
+        <v>0.9956309456830806</v>
+      </c>
+      <c r="E17">
+        <v>0.9916696509680184</v>
+      </c>
+      <c r="F17">
+        <v>0.99096221622741</v>
+      </c>
+      <c r="G17">
+        <v>0.9954741158333702</v>
+      </c>
+      <c r="H17">
+        <v>0.9956309456830806</v>
+      </c>
+      <c r="I17">
+        <v>0.992325672973139</v>
+      </c>
+      <c r="J17">
+        <v>0.9932343334042283</v>
+      </c>
+      <c r="K17">
+        <v>0.9926970675175544</v>
+      </c>
+      <c r="L17">
+        <v>0.9911819355185389</v>
+      </c>
+      <c r="M17">
+        <v>0.9954665401410732</v>
+      </c>
+      <c r="N17">
+        <v>0.9936502983255495</v>
+      </c>
+      <c r="O17">
+        <v>0.9934342321779698</v>
+      </c>
+      <c r="P17">
+        <v>0.9928969922656674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9555999066360479</v>
+      </c>
+      <c r="D18">
+        <v>0.9920333835649312</v>
+      </c>
+      <c r="E18">
+        <v>0.9897523578422132</v>
+      </c>
+      <c r="F18">
+        <v>1.014038933559427</v>
+      </c>
+      <c r="G18">
+        <v>0.9555999066360479</v>
+      </c>
+      <c r="H18">
+        <v>0.9920333835649312</v>
+      </c>
+      <c r="I18">
+        <v>0.9774125866171012</v>
+      </c>
+      <c r="J18">
+        <v>1.005624824689247</v>
+      </c>
+      <c r="K18">
+        <v>0.9952870229557815</v>
+      </c>
+      <c r="L18">
+        <v>1.006358908091816</v>
+      </c>
+      <c r="M18">
+        <v>0.9555999066360479</v>
+      </c>
+      <c r="N18">
+        <v>0.9908928707035722</v>
+      </c>
+      <c r="O18">
+        <v>0.9878561454006549</v>
+      </c>
+      <c r="P18">
+        <v>0.9920134904945705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9435945384509613</v>
+      </c>
+      <c r="D19">
+        <v>1.086309105141223</v>
+      </c>
+      <c r="E19">
+        <v>0.9727803913028665</v>
+      </c>
+      <c r="F19">
+        <v>1.00840885990544</v>
+      </c>
+      <c r="G19">
+        <v>0.9435945384509613</v>
+      </c>
+      <c r="H19">
+        <v>1.086309105141223</v>
+      </c>
+      <c r="I19">
+        <v>0.9558379423795529</v>
+      </c>
+      <c r="J19">
+        <v>1.00848941600661</v>
+      </c>
+      <c r="K19">
+        <v>0.9683419697192863</v>
+      </c>
+      <c r="L19">
+        <v>1.053131090150523</v>
+      </c>
+      <c r="M19">
+        <v>0.9435561134809031</v>
+      </c>
+      <c r="N19">
+        <v>1.029544748222045</v>
+      </c>
+      <c r="O19">
+        <v>1.002773223700123</v>
+      </c>
+      <c r="P19">
+        <v>0.999611664132058</v>
       </c>
     </row>
   </sheetData>
